--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.2915021773396</v>
+        <v>127.134477</v>
       </c>
       <c r="H2">
-        <v>31.2915021773396</v>
+        <v>381.4034310000001</v>
       </c>
       <c r="I2">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116364</v>
       </c>
       <c r="J2">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116365</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N2">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O2">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P2">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q2">
-        <v>42.62075642922134</v>
+        <v>2674.150445630469</v>
       </c>
       <c r="R2">
-        <v>42.62075642922134</v>
+        <v>24067.35401067423</v>
       </c>
       <c r="S2">
-        <v>0.00322350656512874</v>
+        <v>0.07624599028735835</v>
       </c>
       <c r="T2">
-        <v>0.00322350656512874</v>
+        <v>0.07624599028735836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.2915021773396</v>
+        <v>127.134477</v>
       </c>
       <c r="H3">
-        <v>31.2915021773396</v>
+        <v>381.4034310000001</v>
       </c>
       <c r="I3">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116364</v>
       </c>
       <c r="J3">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116365</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N3">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O3">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P3">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q3">
-        <v>54.85923001744582</v>
+        <v>235.607774062509</v>
       </c>
       <c r="R3">
-        <v>54.85923001744582</v>
+        <v>2120.469966562582</v>
       </c>
       <c r="S3">
-        <v>0.00414913068032507</v>
+        <v>0.006717702843588845</v>
       </c>
       <c r="T3">
-        <v>0.00414913068032507</v>
+        <v>0.006717702843588847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.2915021773396</v>
+        <v>127.134477</v>
       </c>
       <c r="H4">
-        <v>31.2915021773396</v>
+        <v>381.4034310000001</v>
       </c>
       <c r="I4">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116364</v>
       </c>
       <c r="J4">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116365</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N4">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O4">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P4">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q4">
-        <v>5423.419444859956</v>
+        <v>22832.19082288709</v>
       </c>
       <c r="R4">
-        <v>5423.419444859956</v>
+        <v>205489.7174059838</v>
       </c>
       <c r="S4">
-        <v>0.4101857791985773</v>
+        <v>0.6509966567384087</v>
       </c>
       <c r="T4">
-        <v>0.4101857791985773</v>
+        <v>0.6509966567384087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.2915021773396</v>
+        <v>127.134477</v>
       </c>
       <c r="H5">
-        <v>31.2915021773396</v>
+        <v>381.4034310000001</v>
       </c>
       <c r="I5">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116364</v>
       </c>
       <c r="J5">
-        <v>0.421134999851665</v>
+        <v>0.7397224744116365</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51124382495254</v>
+        <v>1.589601</v>
       </c>
       <c r="N5">
-        <v>1.51124382495254</v>
+        <v>4.768803</v>
       </c>
       <c r="O5">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275677</v>
       </c>
       <c r="P5">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275675</v>
       </c>
       <c r="Q5">
-        <v>47.28908943899343</v>
+        <v>202.093091773677</v>
       </c>
       <c r="R5">
-        <v>47.28908943899343</v>
+        <v>1818.837825963093</v>
       </c>
       <c r="S5">
-        <v>0.003576583407633819</v>
+        <v>0.005762124542280625</v>
       </c>
       <c r="T5">
-        <v>0.003576583407633819</v>
+        <v>0.005762124542280625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7803761897992</v>
+        <v>29.89437833333333</v>
       </c>
       <c r="H6">
-        <v>29.7803761897992</v>
+        <v>89.68313499999999</v>
       </c>
       <c r="I6">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="J6">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N6">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O6">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P6">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q6">
-        <v>40.56251926681799</v>
+        <v>628.7992606594761</v>
       </c>
       <c r="R6">
-        <v>40.56251926681799</v>
+        <v>5659.193345935285</v>
       </c>
       <c r="S6">
-        <v>0.003067837319402958</v>
+        <v>0.01792846860926599</v>
       </c>
       <c r="T6">
-        <v>0.003067837319402958</v>
+        <v>0.01792846860926599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7803761897992</v>
+        <v>29.89437833333333</v>
       </c>
       <c r="H7">
-        <v>29.7803761897992</v>
+        <v>89.68313499999999</v>
       </c>
       <c r="I7">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="J7">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N7">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O7">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P7">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q7">
-        <v>52.20997375400405</v>
+        <v>55.400770131765</v>
       </c>
       <c r="R7">
-        <v>52.20997375400405</v>
+        <v>498.606931185885</v>
       </c>
       <c r="S7">
-        <v>0.003948761290539723</v>
+        <v>0.001579599453082692</v>
       </c>
       <c r="T7">
-        <v>0.003948761290539723</v>
+        <v>0.001579599453082692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.7803761897992</v>
+        <v>29.89437833333333</v>
       </c>
       <c r="H8">
-        <v>29.7803761897992</v>
+        <v>89.68313499999999</v>
       </c>
       <c r="I8">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="J8">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N8">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O8">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P8">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q8">
-        <v>5161.51223382185</v>
+        <v>5368.75729341497</v>
       </c>
       <c r="R8">
-        <v>5161.51223382185</v>
+        <v>48318.81564073473</v>
       </c>
       <c r="S8">
-        <v>0.3903771299635991</v>
+        <v>0.1530752382005167</v>
       </c>
       <c r="T8">
-        <v>0.3903771299635991</v>
+        <v>0.1530752382005167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.7803761897992</v>
+        <v>29.89437833333333</v>
       </c>
       <c r="H9">
-        <v>29.7803761897992</v>
+        <v>89.68313499999999</v>
       </c>
       <c r="I9">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="J9">
-        <v>0.4007975919850805</v>
+        <v>0.1739382112039596</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.51124382495254</v>
+        <v>1.589601</v>
       </c>
       <c r="N9">
-        <v>1.51124382495254</v>
+        <v>4.768803</v>
       </c>
       <c r="O9">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275677</v>
       </c>
       <c r="P9">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275675</v>
       </c>
       <c r="Q9">
-        <v>45.00540962159769</v>
+        <v>47.520133693045</v>
       </c>
       <c r="R9">
-        <v>45.00540962159769</v>
+        <v>427.681203237405</v>
       </c>
       <c r="S9">
-        <v>0.003403863411538676</v>
+        <v>0.001354904941094163</v>
       </c>
       <c r="T9">
-        <v>0.003403863411538676</v>
+        <v>0.001354904941094162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.17696299909602</v>
+        <v>5.711532999999999</v>
       </c>
       <c r="H10">
-        <v>4.17696299909602</v>
+        <v>17.134599</v>
       </c>
       <c r="I10">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="J10">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N10">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O10">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P10">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q10">
-        <v>5.689254596644521</v>
+        <v>120.1365583718343</v>
       </c>
       <c r="R10">
-        <v>5.689254596644521</v>
+        <v>1081.229025346509</v>
       </c>
       <c r="S10">
-        <v>0.0004302915076936265</v>
+        <v>0.003425361081588644</v>
       </c>
       <c r="T10">
-        <v>0.0004302915076936265</v>
+        <v>0.003425361081588644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.17696299909602</v>
+        <v>5.711532999999999</v>
       </c>
       <c r="H11">
-        <v>4.17696299909602</v>
+        <v>17.134599</v>
       </c>
       <c r="I11">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="J11">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N11">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O11">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P11">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q11">
-        <v>7.32291382635216</v>
+        <v>10.584710051661</v>
       </c>
       <c r="R11">
-        <v>7.32291382635216</v>
+        <v>95.26239046494899</v>
       </c>
       <c r="S11">
-        <v>0.0005538489405817772</v>
+        <v>0.0003017936784791392</v>
       </c>
       <c r="T11">
-        <v>0.0005538489405817772</v>
+        <v>0.0003017936784791393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.17696299909602</v>
+        <v>5.711532999999999</v>
       </c>
       <c r="H12">
-        <v>4.17696299909602</v>
+        <v>17.134599</v>
       </c>
       <c r="I12">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="J12">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N12">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O12">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P12">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q12">
-        <v>723.9480617252968</v>
+        <v>1025.739157657578</v>
       </c>
       <c r="R12">
-        <v>723.9480617252968</v>
+        <v>9231.652418918202</v>
       </c>
       <c r="S12">
-        <v>0.05475386936548454</v>
+        <v>0.02924610991124848</v>
       </c>
       <c r="T12">
-        <v>0.05475386936548454</v>
+        <v>0.02924610991124849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.17696299909602</v>
+        <v>5.711532999999999</v>
       </c>
       <c r="H13">
-        <v>4.17696299909602</v>
+        <v>17.134599</v>
       </c>
       <c r="I13">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="J13">
-        <v>0.05621543197368698</v>
+        <v>0.03323212886968274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.51124382495254</v>
+        <v>1.589601</v>
       </c>
       <c r="N13">
-        <v>1.51124382495254</v>
+        <v>4.768803</v>
       </c>
       <c r="O13">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275677</v>
       </c>
       <c r="P13">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275675</v>
       </c>
       <c r="Q13">
-        <v>6.312409539439102</v>
+        <v>9.079058568332998</v>
       </c>
       <c r="R13">
-        <v>6.312409539439102</v>
+        <v>81.711527114997</v>
       </c>
       <c r="S13">
-        <v>0.0004774221599270423</v>
+        <v>0.000258864198366472</v>
       </c>
       <c r="T13">
-        <v>0.0004774221599270423</v>
+        <v>0.000258864198366472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.05394084935236</v>
+        <v>9.127415333333333</v>
       </c>
       <c r="H14">
-        <v>9.05394084935236</v>
+        <v>27.382246</v>
       </c>
       <c r="I14">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472111</v>
       </c>
       <c r="J14">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472112</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.36205530139381</v>
+        <v>21.03403033333333</v>
       </c>
       <c r="N14">
-        <v>1.36205530139381</v>
+        <v>63.102091</v>
       </c>
       <c r="O14">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="P14">
-        <v>0.007654330716430944</v>
+        <v>0.1030737782409588</v>
       </c>
       <c r="Q14">
-        <v>12.33196813236636</v>
+        <v>191.9863309862651</v>
       </c>
       <c r="R14">
-        <v>12.33196813236636</v>
+        <v>1727.876978876386</v>
       </c>
       <c r="S14">
-        <v>0.0009326953242056198</v>
+        <v>0.005473958262745824</v>
       </c>
       <c r="T14">
-        <v>0.0009326953242056198</v>
+        <v>0.005473958262745825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.05394084935236</v>
+        <v>9.127415333333333</v>
       </c>
       <c r="H15">
-        <v>9.05394084935236</v>
+        <v>27.382246</v>
       </c>
       <c r="I15">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472111</v>
       </c>
       <c r="J15">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472112</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.75316703258731</v>
+        <v>1.853217</v>
       </c>
       <c r="N15">
-        <v>1.75316703258731</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O15">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="P15">
-        <v>0.009852258021267537</v>
+        <v>0.009081382648177616</v>
       </c>
       <c r="Q15">
-        <v>15.87307061208011</v>
+        <v>16.915081261794</v>
       </c>
       <c r="R15">
-        <v>15.87307061208011</v>
+        <v>152.235731356146</v>
       </c>
       <c r="S15">
-        <v>0.001200517109820969</v>
+        <v>0.0004822866730269379</v>
       </c>
       <c r="T15">
-        <v>0.001200517109820969</v>
+        <v>0.0004822866730269381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.05394084935236</v>
+        <v>9.127415333333333</v>
       </c>
       <c r="H16">
-        <v>9.05394084935236</v>
+        <v>27.382246</v>
       </c>
       <c r="I16">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472111</v>
       </c>
       <c r="J16">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472112</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>173.319242205874</v>
+        <v>179.590866</v>
       </c>
       <c r="N16">
-        <v>173.319242205874</v>
+        <v>538.772598</v>
       </c>
       <c r="O16">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635879</v>
       </c>
       <c r="P16">
-        <v>0.9740006870553523</v>
+        <v>0.8800552629635878</v>
       </c>
       <c r="Q16">
-        <v>1569.222166986558</v>
+        <v>1639.200424055012</v>
       </c>
       <c r="R16">
-        <v>1569.222166986558</v>
+        <v>14752.80381649511</v>
       </c>
       <c r="S16">
-        <v>0.1186839085276913</v>
+        <v>0.04673725811341393</v>
       </c>
       <c r="T16">
-        <v>0.1186839085276913</v>
+        <v>0.04673725811341394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.05394084935236</v>
+        <v>9.127415333333333</v>
       </c>
       <c r="H17">
-        <v>9.05394084935236</v>
+        <v>27.382246</v>
       </c>
       <c r="I17">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472111</v>
       </c>
       <c r="J17">
-        <v>0.1218519761895677</v>
+        <v>0.05310718551472112</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.51124382495254</v>
+        <v>1.589601</v>
       </c>
       <c r="N17">
-        <v>1.51124382495254</v>
+        <v>4.768803</v>
       </c>
       <c r="O17">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275677</v>
       </c>
       <c r="P17">
-        <v>0.008492724206949286</v>
+        <v>0.007789576147275675</v>
       </c>
       <c r="Q17">
-        <v>13.68271220006931</v>
+        <v>14.508948541282</v>
       </c>
       <c r="R17">
-        <v>13.68271220006931</v>
+        <v>130.580536871538</v>
       </c>
       <c r="S17">
-        <v>0.001034855227849749</v>
+        <v>0.0004136824655344159</v>
       </c>
       <c r="T17">
-        <v>0.001034855227849749</v>
+        <v>0.0004136824655344159</v>
       </c>
     </row>
   </sheetData>
